--- a/dic.xlsx
+++ b/dic.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pch88\python_work_dir\pyDic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pch88\gitDir_pydic\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
   <si>
     <t>keyword</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,14 +48,6 @@
   </si>
   <si>
     <t>interpolation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>find</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array 22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -109,6 +102,199 @@
   <si>
     <t>2D 보간</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delay queue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delay data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class delayQueue:
+    data = 0
+    dq = []
+    def __init__(self, delay, initValue):
+        self.dq=[initValue]*delay
+    def delay(self,data):
+        self.dq.append(data)
+        del self.dq[0]
+        return self.dq[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딜레이 큐를 생성 10 cycle 뒤에 데이터 받기
+dq=delayQueue(10,0)
+dq.delay(3) 하면 이 값은 10Cycle 뒤에
+리턴된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataProcessing</t>
+  </si>
+  <si>
+    <t>dataProcessing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>simulation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>steady-state ss system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 시스템의 SS 상태값을 찾는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>def findSSvalue(valueArray):
+    valueArray1 = np.delete(valueArray,0,0)
+    valueArray2 = np.delete(valueArray,-1,0)
+    variationValue=abs(valueArray1-valueArray2)
+    indexMax=np.where(variationValue == max(variationValue))[0][0]
+    newVariationValue=variationValue[indexMax:]
+    indexMin=np.where(newVariationValue == min(newVariationValue))[0][0]
+    return valueArray[indexMax+indexMin]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과 array를 입력하면 결과 array의 변화가 가장 작은 지점의 값을 리턴한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>differential array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 시간에서의 기울기 값을 찾는다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>def findDifferentialFromArray(timeArray, valueArray, targetTime):
+    index=np.where(abs(timeArray-targetTime)==min(abs(timeArray-targetTime)))[0][0]
+    dt=abs(timeArray[index+1]-timeArray[index-1])
+    dv=valueArray[index+1]-valueArray[index-1]
+    return dv/dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간 array 와 value array가 같이 있을때 
+특정 시간에 해당하는 미분값을 리턴한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>simulation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>def linefrom63(diffValue, dt, time63, ssValue):
+    timeArray=np.arange(time63/dt*2)*dt
+    line=diffValue*(timeArray-time63)+ssValue*0.63
+    t0=-ssValue*0.63/diffValue+time63
+    t1=ssValue*0.37/diffValue+time63
+    return [t0,t1,timeArray,line]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>find time constant line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">시정수 기준 시작과 종료 시점 탐색 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시정수에 해당되는 시간과 최종값 미분값을 기반으로 지글러 니콜스 튜닝에 필요한 값들을 탐색한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>simulation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>def inputStart(inputArr, timeArr, inputSS):
+    index=np.where((a&gt;3)==True)[0][0]
+    return timeArr[index]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>find input start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input 데이터의 시작시간을 탐색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input data의 시작시간을 탐색한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>def Ziegler_Nichol_1stPidTun(input0,plant0,plant63,plant100,inputVal,plantVal,PID):
+    L=plant0-input0
+    T=plant63-plant0
+    K=plantVal/inputVal
+    if PID == "P":
+        P = T/(K*L)
+        I = 0
+        D = 0
+    elif PID =="PI":
+        P = 0.9*T(K*L)
+        I = L/0.3
+        D = 0
+    else:
+        P = 1.2*T/(K*L)
+        I = 2*L
+        D = 0.5*L
+    return [P,I,D]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziegler_nichol pid tune</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ziegler_Nichol 의 PID 튠 방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계산에 필요한 변수들을 입력하면 적절한 PID 값을 추출해준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sin cosin wave generator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사인 코사인 신호 발생기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>def sinwave(amplitude,fs,start,cycle,dt):
+    return math.sin((start+cycle*dt*math.pi*2)*fs)*amplitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크기 ,주파수, 시작위치, 현재 루프횟수, 루프 시간간격 을 입력하면 현재 루프에 해당되는 값이 리턴된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>document</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVC_2017 종방향 제어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVC_2017 종방향 제어</t>
   </si>
 </sst>
 </file>
@@ -475,21 +661,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44496889-C28F-4398-B7DD-BE22310DB1DF}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.25" customWidth="1"/>
+    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="55" customWidth="1"/>
-    <col min="4" max="4" width="36" customWidth="1"/>
+    <col min="4" max="4" width="35.875" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="21.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -502,89 +690,231 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="224.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="224.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
       <c r="D4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="165" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="165" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="99" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="313.5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/dic.xlsx
+++ b/dic.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pch88\gitDir_pydic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pch88\Desktop\pydic4\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F679EFB-E962-49A1-A147-46DE007D42DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10320" windowHeight="10635" xr2:uid="{00ADD050-0A98-45CD-8921-DF248C725DE1}"/>
+    <workbookView xWindow="504" yWindow="1440" windowWidth="17112" windowHeight="14436" xr2:uid="{00ADD050-0A98-45CD-8921-DF248C725DE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
   <si>
     <t>keyword</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,15 +35,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>explain code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interpolation array find</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -295,6 +287,30 @@
   </si>
   <si>
     <t>AVC_2017 종방향 제어</t>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explain_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영희 철수 민수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영희 정수 민수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -661,260 +677,306 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44496889-C28F-4398-B7DD-BE22310DB1DF}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="55" customWidth="1"/>
-    <col min="4" max="4" width="35.875" customWidth="1"/>
-    <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.796875" customWidth="1"/>
+    <col min="5" max="5" width="21.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="224.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="409.6" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="174" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="156.6" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="121.8" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="330.6" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="224.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="G13">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>7</v>
+      </c>
+      <c r="G14">
         <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="165" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="165" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="99" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="313.5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
